--- a/res/SEED_result.xlsx
+++ b/res/SEED_result.xlsx
@@ -805,7 +805,7 @@
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>0.9393</v>
       </c>
     </row>
     <row r="35">

--- a/res/SEED_result.xlsx
+++ b/res/SEED_result.xlsx
@@ -508,7 +508,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5629</v>
+        <v>0.6301</v>
       </c>
     </row>
     <row r="8">
@@ -816,7 +816,7 @@
         <v>34</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>0.8201000000000001</v>
       </c>
     </row>
     <row r="36">
@@ -827,7 +827,7 @@
         <v>35</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>0.6792</v>
       </c>
     </row>
     <row r="37">

--- a/res/SEED_result.xlsx
+++ b/res/SEED_result.xlsx
@@ -838,7 +838,7 @@
         <v>36</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>0.8685</v>
       </c>
     </row>
     <row r="38">
@@ -849,7 +849,7 @@
         <v>37</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>0.763</v>
       </c>
     </row>
     <row r="39">
